--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_7_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_7_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2259581.997415274</v>
+        <v>2341266.03995357</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.7357022</v>
+        <v>2346514.735702198</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9761869.891947463</v>
+        <v>9761869.891947461</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>204.1970224230689</v>
       </c>
       <c r="D2" t="n">
-        <v>276.1565137023554</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>276.1565137023554</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>243.2386572690347</v>
+        <v>15.16194852731947</v>
       </c>
       <c r="H2" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -753,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>11.29456926877373</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268741</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,10 +794,10 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>157.2920791955114</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.1311939478778</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.6773952840985035</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>372.0396308464222</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>372.0396308464215</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>372.0396308464215</v>
       </c>
       <c r="G5" t="n">
-        <v>273.5784560475042</v>
+        <v>372.0396308464215</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>120.1819171385218</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409304</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.0270262658048</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>207.510589711006</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>372.0396308464222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -981,19 +983,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.0906518175546</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281881</v>
+        <v>80.69052336281885</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129679</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141302</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>112.9413211380364</v>
+        <v>56.95059348303928</v>
       </c>
       <c r="U6" t="n">
         <v>225.9247462029711</v>
@@ -1035,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1108,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5860313669123</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>30.44838804308338</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>376.8517674619503</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>197.1365038682893</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>14.19510348422572</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>51.42031126338545</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1427,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>33.35146980185879</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>185.3125630923342</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>110.1239851026829</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>45.87424119343771</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1825,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>88.23851788996291</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>108.3315462922374</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>174.7430637258771</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>173.5954779282456</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2485,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>33.64730058843879</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2570,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2612,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>225.5094185817892</v>
+        <v>160.4890035738237</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2846,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>60.1617239309573</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>122.670068214939</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3193,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>75.06705067831071</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>238.2336684417116</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3556,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3664,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>17.78458198347562</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>154.91550418096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>21.21224374176673</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>18.44800941135801</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>66.14085215535403</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1104.626054809422</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="C2" t="n">
-        <v>1104.626054809422</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="D2" t="n">
-        <v>825.6800813726991</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="E2" t="n">
-        <v>825.6800813726991</v>
+        <v>323.2990948046595</v>
       </c>
       <c r="F2" t="n">
-        <v>546.7341079359765</v>
+        <v>316.3535940554561</v>
       </c>
       <c r="G2" t="n">
-        <v>301.0384945329111</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="H2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I2" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K2" t="n">
         <v>142.8373253438683</v>
@@ -4340,10 +4342,10 @@
         <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4352,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S2" t="n">
-        <v>1104.626054809422</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="T2" t="n">
-        <v>1104.626054809422</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="U2" t="n">
-        <v>1104.626054809422</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="V2" t="n">
-        <v>1104.626054809422</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="W2" t="n">
-        <v>1104.626054809422</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="X2" t="n">
-        <v>1104.626054809422</v>
+        <v>529.5587134138201</v>
       </c>
       <c r="Y2" t="n">
-        <v>1104.626054809422</v>
+        <v>529.5587134138201</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.772397078701</v>
+        <v>33.50117692323261</v>
       </c>
       <c r="C3" t="n">
-        <v>109.772397078701</v>
+        <v>33.50117692323261</v>
       </c>
       <c r="D3" t="n">
-        <v>109.772397078701</v>
+        <v>33.50117692323261</v>
       </c>
       <c r="E3" t="n">
-        <v>109.772397078701</v>
+        <v>33.50117692323261</v>
       </c>
       <c r="F3" t="n">
-        <v>109.772397078701</v>
+        <v>33.50117692323261</v>
       </c>
       <c r="G3" t="n">
-        <v>109.772397078701</v>
+        <v>33.50117692323261</v>
       </c>
       <c r="H3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J3" t="n">
-        <v>22.09252109618843</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K3" t="n">
-        <v>159.4923828364511</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="L3" t="n">
-        <v>159.4923828364511</v>
+        <v>274.5546080058863</v>
       </c>
       <c r="M3" t="n">
-        <v>288.9361218459457</v>
+        <v>547.9495565712182</v>
       </c>
       <c r="N3" t="n">
-        <v>562.3310704112776</v>
+        <v>821.3445051365501</v>
       </c>
       <c r="O3" t="n">
-        <v>828.8278839945614</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
@@ -4434,25 +4436,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>932.6220420606003</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="T3" t="n">
-        <v>730.7421420887096</v>
+        <v>730.7421420887098</v>
       </c>
       <c r="U3" t="n">
-        <v>571.8612540124354</v>
+        <v>730.7421420887098</v>
       </c>
       <c r="V3" t="n">
-        <v>571.8612540124354</v>
+        <v>495.5900338569671</v>
       </c>
       <c r="W3" t="n">
-        <v>317.6238972842338</v>
+        <v>241.3526771287654</v>
       </c>
       <c r="X3" t="n">
-        <v>109.772397078701</v>
+        <v>33.50117692323261</v>
       </c>
       <c r="Y3" t="n">
-        <v>109.772397078701</v>
+        <v>33.50117692323261</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.776758756894</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.776758756894</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.776758756894</v>
       </c>
       <c r="E4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.776758756894</v>
       </c>
       <c r="F4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.776758756894</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.776758756894</v>
       </c>
       <c r="H4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.776758756894</v>
       </c>
       <c r="I4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.776758756894</v>
       </c>
       <c r="J4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.776758756894</v>
       </c>
       <c r="K4" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L4" t="n">
-        <v>58.70189726492713</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6904745160686</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N4" t="n">
         <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>194.1252445754622</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.9927170031358</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.776758756894</v>
       </c>
       <c r="S4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.776758756894</v>
       </c>
       <c r="T4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.776758756894</v>
       </c>
       <c r="U4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.776758756894</v>
       </c>
       <c r="V4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.776758756894</v>
       </c>
       <c r="W4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.776758756894</v>
       </c>
       <c r="X4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.776758756894</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.9927170031358</v>
+        <v>22.776758756894</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>313.0505460123761</v>
+        <v>1157.155991214446</v>
       </c>
       <c r="C5" t="n">
-        <v>313.0505460123761</v>
+        <v>1157.155991214446</v>
       </c>
       <c r="D5" t="n">
-        <v>313.0505460123761</v>
+        <v>1157.155991214446</v>
       </c>
       <c r="E5" t="n">
-        <v>313.0505460123761</v>
+        <v>781.3583842988684</v>
       </c>
       <c r="F5" t="n">
-        <v>306.1050452631726</v>
+        <v>405.5607773832911</v>
       </c>
       <c r="G5" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="H5" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="J5" t="n">
-        <v>57.643917353804</v>
+        <v>57.64391735380377</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456879</v>
+        <v>220.1747338456874</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039977</v>
+        <v>474.0852112039968</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494162</v>
+        <v>773.2160860494149</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635722</v>
+        <v>1062.55521363572</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293129</v>
+        <v>1290.582309293127</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935881</v>
+        <v>1447.523776935878</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385689</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="R5" t="n">
-        <v>1488.158523385689</v>
+        <v>1366.762647488189</v>
       </c>
       <c r="S5" t="n">
-        <v>1287.905382334244</v>
+        <v>1366.762647488189</v>
       </c>
       <c r="T5" t="n">
-        <v>1064.645759843532</v>
+        <v>1366.762647488189</v>
       </c>
       <c r="U5" t="n">
-        <v>1064.645759843532</v>
+        <v>1366.762647488189</v>
       </c>
       <c r="V5" t="n">
-        <v>1064.645759843532</v>
+        <v>1366.762647488189</v>
       </c>
       <c r="W5" t="n">
-        <v>1064.645759843532</v>
+        <v>1157.155991214446</v>
       </c>
       <c r="X5" t="n">
-        <v>1064.645759843532</v>
+        <v>1157.155991214446</v>
       </c>
       <c r="Y5" t="n">
-        <v>688.8481529279541</v>
+        <v>1157.155991214446</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>684.0339149918382</v>
+        <v>740.428201543025</v>
       </c>
       <c r="C6" t="n">
-        <v>509.5808857107111</v>
+        <v>565.975172261898</v>
       </c>
       <c r="D6" t="n">
-        <v>360.6464760494599</v>
+        <v>417.0407626006467</v>
       </c>
       <c r="E6" t="n">
-        <v>360.6464760494599</v>
+        <v>257.8033075951912</v>
       </c>
       <c r="F6" t="n">
-        <v>360.6464760494599</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="G6" t="n">
-        <v>222.1710701731421</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="H6" t="n">
         <v>111.2687496220762</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782854</v>
+        <v>52.67537262782835</v>
       </c>
       <c r="K6" t="n">
-        <v>52.67537262782854</v>
+        <v>218.456818636141</v>
       </c>
       <c r="L6" t="n">
-        <v>212.7583667934836</v>
+        <v>502.774827782277</v>
       </c>
       <c r="M6" t="n">
-        <v>581.0776013314415</v>
+        <v>848.0470181903936</v>
       </c>
       <c r="N6" t="n">
-        <v>949.3968358693995</v>
+        <v>848.0470181903936</v>
       </c>
       <c r="O6" t="n">
-        <v>1257.711717241719</v>
+        <v>1156.361899562713</v>
       </c>
       <c r="P6" t="n">
-        <v>1488.158523385689</v>
+        <v>1386.808705706682</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385689</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707611</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.17437210748</v>
+        <v>1488.158523385686</v>
       </c>
       <c r="T6" t="n">
-        <v>1120.092229543807</v>
+        <v>1430.632671382616</v>
       </c>
       <c r="U6" t="n">
-        <v>891.885415197371</v>
+        <v>1202.425857036181</v>
       </c>
       <c r="V6" t="n">
-        <v>891.885415197371</v>
+        <v>1202.425857036181</v>
       </c>
       <c r="W6" t="n">
-        <v>891.885415197371</v>
+        <v>948.188500307979</v>
       </c>
       <c r="X6" t="n">
-        <v>684.0339149918382</v>
+        <v>948.188500307979</v>
       </c>
       <c r="Y6" t="n">
-        <v>684.0339149918382</v>
+        <v>740.428201543025</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="C7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="D7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="K7" t="n">
-        <v>32.0999017588816</v>
+        <v>32.09990175888142</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611273</v>
+        <v>90.61654790611237</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236689</v>
+        <v>162.7032697236683</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400021</v>
+        <v>238.5105468400014</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057947</v>
+        <v>292.5145415057938</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918676</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918676</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918676</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918676</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918676</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="U7" t="n">
-        <v>29.76317046771378</v>
+        <v>315.2036061918666</v>
       </c>
       <c r="V7" t="n">
-        <v>29.76317046771378</v>
+        <v>60.51911798597976</v>
       </c>
       <c r="W7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="X7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771372</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.76317046771378</v>
+        <v>29.76317046771372</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2113.174258592771</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C8" t="n">
-        <v>1744.21174165236</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>1744.21174165236</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
         <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>952.5674858910852</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>534.6036777892721</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977173</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592771</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X8" t="n">
-        <v>2113.174258592771</v>
+        <v>1562.681172365833</v>
       </c>
       <c r="Y8" t="n">
-        <v>2113.174258592771</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572643</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4920,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>68.28147018826922</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C10" t="n">
-        <v>68.28147018826922</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D10" t="n">
-        <v>68.28147018826922</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E10" t="n">
-        <v>68.28147018826922</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>68.28147018826922</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>68.28147018826922</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4963,49 +4965,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782184</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782184</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>432.4839335313644</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>432.4839335313644</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>432.4839335313644</v>
       </c>
       <c r="X10" t="n">
-        <v>470.722514162039</v>
+        <v>432.4839335313644</v>
       </c>
       <c r="Y10" t="n">
-        <v>249.9299350185089</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5039,13 +5041,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>130.9054447954967</v>
+        <v>840.6662285267281</v>
       </c>
       <c r="C13" t="n">
-        <v>130.9054447954967</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="D13" t="n">
-        <v>130.9054447954967</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E13" t="n">
-        <v>130.9054447954967</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F13" t="n">
-        <v>130.9054447954967</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>130.9054447954967</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>130.9054447954967</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324574</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954967</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X13" t="n">
-        <v>130.9054447954967</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.9054447954967</v>
+        <v>1022.314693356968</v>
       </c>
     </row>
     <row r="14">
@@ -5279,16 +5281,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.9829531089974</v>
+        <v>757.4105722479408</v>
       </c>
       <c r="C16" t="n">
-        <v>527.0467701810906</v>
+        <v>588.4743893200339</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>438.3577499076981</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>290.444656325305</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>143.5547088273946</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5473,13 +5475,13 @@
         <v>1387.841167119728</v>
       </c>
       <c r="W16" t="n">
-        <v>1098.423997082767</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X16" t="n">
-        <v>1098.423997082767</v>
+        <v>1159.851616221711</v>
       </c>
       <c r="Y16" t="n">
-        <v>877.6314179392372</v>
+        <v>939.0590370781805</v>
       </c>
     </row>
     <row r="17">
@@ -5513,13 +5515,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5592,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2486.320249703573</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>355.2830904386603</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C19" t="n">
-        <v>186.3469075107534</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D19" t="n">
-        <v>186.3469075107534</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E19" t="n">
-        <v>186.3469075107534</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F19" t="n">
-        <v>186.3469075107534</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>186.3469075107534</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5704,19 +5706,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W19" t="n">
-        <v>985.7136853104475</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X19" t="n">
-        <v>757.7241344124302</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y19" t="n">
-        <v>536.9315552689001</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="20">
@@ -5729,22 +5731,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,16 +5755,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5777,22 +5779,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5835,19 +5837,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864554</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1818.397748747283</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2338.698370483031</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1322.408125380249</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>1098.622710169755</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383442</v>
+        <v>809.4940713833126</v>
       </c>
       <c r="V22" t="n">
-        <v>675.0071030383442</v>
+        <v>554.8095831774258</v>
       </c>
       <c r="W22" t="n">
-        <v>675.0071030383442</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X22" t="n">
-        <v>499.6581354340557</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="23">
@@ -5972,43 +5974,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6066,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2486.320249703573</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1464.929098246348</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1265.0090881619</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1041.223672951406</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1041.223672951406</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1041.223672951406</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>751.8065029144454</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6205,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,25 +6226,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.627437207831</v>
@@ -6263,7 +6265,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>2911.709630095317</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>3158.474758001781</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.995055864554</v>
+        <v>3465.794891281742</v>
       </c>
       <c r="N27" t="n">
-        <v>1538.857683528586</v>
+        <v>4270.206469545893</v>
       </c>
       <c r="O27" t="n">
-        <v>2208.321444831246</v>
+        <v>4549.74653476459</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>4754.7690155468</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>861.4909633328887</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="C28" t="n">
-        <v>692.5547804049818</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D28" t="n">
-        <v>542.438140992646</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E28" t="n">
-        <v>394.5250474102529</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
         <v>247.6350999123426</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V28" t="n">
-        <v>1271.128979061146</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="W28" t="n">
-        <v>1271.128979061146</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="X28" t="n">
-        <v>1043.139428163128</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="Y28" t="n">
-        <v>1043.139428163128</v>
+        <v>712.8170085027681</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6458,13 +6460,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,22 +6475,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6497,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>2649.889045452863</v>
       </c>
       <c r="L30" t="n">
-        <v>1026.505047571597</v>
+        <v>2896.654173359327</v>
       </c>
       <c r="M30" t="n">
-        <v>1333.825180851558</v>
+        <v>3203.974306639288</v>
       </c>
       <c r="N30" t="n">
-        <v>1663.687808515591</v>
+        <v>3533.836934303321</v>
       </c>
       <c r="O30" t="n">
-        <v>1943.227873734288</v>
+        <v>4203.300695605981</v>
       </c>
       <c r="P30" t="n">
-        <v>2463.528495470036</v>
+        <v>4723.601317341728</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>861.4909633328887</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C31" t="n">
-        <v>692.5547804049818</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="D31" t="n">
-        <v>542.438140992646</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="E31" t="n">
-        <v>394.5250474102529</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6350999123426</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>269.5211009504164</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1387.841167119728</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>1387.841167119728</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>1387.841167119728</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X31" t="n">
-        <v>1263.932007306658</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y31" t="n">
-        <v>1043.139428163128</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="32">
@@ -6677,22 +6679,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
@@ -6719,7 +6721,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6737,7 +6739,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6786,16 +6788,16 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>841.863114014129</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>213.9110074201016</v>
+        <v>173.0423951757512</v>
       </c>
       <c r="C34" t="n">
-        <v>213.9110074201016</v>
+        <v>173.0423951757512</v>
       </c>
       <c r="D34" t="n">
-        <v>213.9110074201016</v>
+        <v>173.0423951757512</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>173.0423951757512</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>173.0423951757512</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028587</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>354.6908600059909</v>
       </c>
       <c r="X34" t="n">
-        <v>213.9110074201016</v>
+        <v>354.6908600059909</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.9110074201016</v>
+        <v>354.6908600059909</v>
       </c>
     </row>
     <row r="35">
@@ -6914,34 +6916,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6950,31 +6952,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7011,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
@@ -7023,7 +7025,7 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
         <v>2051.878056918008</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7099,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7120,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1258.27620142486</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>1003.591713218973</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>714.1745431820127</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>486.1849922839954</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7163,22 +7165,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7196,10 +7198,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7214,7 +7216,7 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614725</v>
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2486.320249703573</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>582.2416896507652</v>
+        <v>284.1174986139257</v>
       </c>
       <c r="C40" t="n">
-        <v>413.3055067228584</v>
+        <v>115.1813156860188</v>
       </c>
       <c r="D40" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7357,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V40" t="n">
-        <v>1209.787631771461</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W40" t="n">
-        <v>920.3704617344999</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X40" t="n">
-        <v>920.3704617344999</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y40" t="n">
-        <v>763.890154481005</v>
+        <v>465.7659634441654</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7406,34 +7408,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>395.2468244550147</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C43" t="n">
-        <v>395.2468244550147</v>
+        <v>268.760239702689</v>
       </c>
       <c r="D43" t="n">
-        <v>245.130185042679</v>
+        <v>118.6436002903532</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7573,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1298.996260473455</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>1044.311772267568</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>1025.677419326802</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>797.6878684287846</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y43" t="n">
-        <v>576.8952892852544</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7655,43 +7657,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>1026.505047571597</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1333.825180851558</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7837,19 +7839,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>1498.916270557902</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>1432.107328986838</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y46" t="n">
-        <v>1211.314749843308</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
   </sheetData>
@@ -8055,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562865</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>253.7986983548371</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
         <v>387.9064735273547</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>211.9437496729917</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>97.00923094357569</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>245.350431181761</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>450.1033532835735</v>
+        <v>426.8235107281785</v>
       </c>
       <c r="N6" t="n">
-        <v>437.615280947046</v>
+        <v>65.57565010062406</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>107.7037345247341</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451769</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8699,7 +8701,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9170,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9249,19 +9251,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>50.62661940943602</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,22 +9485,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>199.7396287231151</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9723,19 +9725,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>50.62661940943602</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>124.3400780863231</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>19.14409596996965</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10194,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>73.64859338270637</v>
+        <v>50.62661940943556</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10434,19 +10436,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>360.5026862907255</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10595,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10671,10 +10673,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10908,19 +10910,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>50.62661940943602</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>392.1113620226433</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>176.7176547498452</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>77.0677756624132</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>33.27209025976063</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>38.49148791552945</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>120.6193272699399</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23713,10 +23715,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23905,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>60.67531047757322</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>110.2531070598574</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>23.17774625772614</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>52.11417746079152</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24373,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>76.31705181535401</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>26.62822474203881</v>
+        <v>91.64863975000435</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>88.75210443657883</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24892,19 +24894,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>103.0395871740982</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25081,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>30.90698584635159</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>91.42651778506688</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25324,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25360,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>48.00368395686573</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25552,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>130.8308910347367</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25597,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>63.66914917113479</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>125.2217189048024</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25834,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>268.074988925233</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>61.34209567542518</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26077,16 +26079,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>159.5688032336831</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>831960.6852334393</v>
+        <v>831960.6852334394</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>831960.6852334393</v>
+        <v>831960.6852334394</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>831960.6852334394</v>
+        <v>831960.6852334393</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>831960.6852334394</v>
+        <v>831960.6852334393</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>831960.6852334392</v>
+        <v>831960.6852334394</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>831960.6852334394</v>
+        <v>831960.6852334393</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>831960.6852334393</v>
+        <v>831960.6852334392</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982126</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982124</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.327398213</v>
-      </c>
       <c r="D2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
         <v>586543.589606563</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.589606563</v>
       </c>
       <c r="G2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="H2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="I2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="J2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="K2" t="n">
         <v>586543.5896065631</v>
       </c>
-      <c r="K2" t="n">
-        <v>586543.589606563</v>
-      </c>
       <c r="L2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="M2" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="N2" t="n">
         <v>586543.5896065627</v>
       </c>
       <c r="O2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="P2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065627</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703839</v>
+        <v>106137.1517703831</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252108</v>
+        <v>316711.9424252113</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113913</v>
+        <v>72254.69487113916</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313418</v>
+        <v>24677.24609313393</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.1579381714</v>
+        <v>76496.1579381716</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325319.6241977947</v>
+        <v>325319.6241977946</v>
       </c>
       <c r="C4" t="n">
-        <v>295391.3642791486</v>
+        <v>295391.3642791488</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="E4" t="n">
-        <v>50690.35944859718</v>
+        <v>50690.35944859717</v>
       </c>
       <c r="F4" t="n">
-        <v>50690.35944859718</v>
+        <v>50690.35944859717</v>
       </c>
       <c r="G4" t="n">
         <v>50690.35944859717</v>
       </c>
       <c r="H4" t="n">
+        <v>50690.35944859717</v>
+      </c>
+      <c r="I4" t="n">
         <v>50690.35944859718</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>50690.35944859717</v>
       </c>
-      <c r="J4" t="n">
-        <v>50690.35944859718</v>
-      </c>
       <c r="K4" t="n">
-        <v>50690.35944859718</v>
+        <v>50690.35944859717</v>
       </c>
       <c r="L4" t="n">
-        <v>50690.35944859718</v>
+        <v>50690.35944859717</v>
       </c>
       <c r="M4" t="n">
         <v>50690.35944859718</v>
       </c>
       <c r="N4" t="n">
-        <v>50690.35944859718</v>
+        <v>50690.35944859717</v>
       </c>
       <c r="O4" t="n">
-        <v>50690.35944859718</v>
+        <v>50690.35944859717</v>
       </c>
       <c r="P4" t="n">
-        <v>50690.35944859719</v>
+        <v>50690.35944859717</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26472,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485715</v>
+        <v>58810.4220148571</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112986.9822368246</v>
+        <v>112986.9822368249</v>
       </c>
       <c r="C6" t="n">
-        <v>155442.3893338233</v>
+        <v>155442.3893338234</v>
       </c>
       <c r="D6" t="n">
-        <v>15145.80098186107</v>
+        <v>15145.80098186046</v>
       </c>
       <c r="E6" t="n">
-        <v>-81294.13226764696</v>
+        <v>-81294.1322676472</v>
       </c>
       <c r="F6" t="n">
-        <v>443865.9042092495</v>
+        <v>443865.9042092492</v>
       </c>
       <c r="G6" t="n">
         <v>443865.9042092491</v>
       </c>
       <c r="H6" t="n">
-        <v>443865.904209249</v>
+        <v>443865.9042092491</v>
       </c>
       <c r="I6" t="n">
         <v>443865.9042092491</v>
       </c>
       <c r="J6" t="n">
-        <v>371611.2093381102</v>
+        <v>371611.2093381101</v>
       </c>
       <c r="K6" t="n">
-        <v>419188.658116115</v>
+        <v>419188.6581161154</v>
       </c>
       <c r="L6" t="n">
-        <v>367369.7462710778</v>
+        <v>367369.7462710774</v>
       </c>
       <c r="M6" t="n">
-        <v>309064.8889754124</v>
+        <v>309064.8889754119</v>
       </c>
       <c r="N6" t="n">
         <v>443865.904209249</v>
       </c>
       <c r="O6" t="n">
-        <v>443865.9042092493</v>
+        <v>443865.904209249</v>
       </c>
       <c r="P6" t="n">
-        <v>443865.9042092494</v>
+        <v>443865.904209249</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593891</v>
+        <v>117.5602045593885</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464222</v>
+        <v>372.0396308464215</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912529</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026383</v>
+        <v>82.53894384026319</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576975</v>
+        <v>260.1834596576978</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406677</v>
+        <v>95.88311714406603</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081334</v>
+        <v>302.2476419081341</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990175</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023556</v>
+        <v>276.1565137023557</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406677</v>
+        <v>95.88311714406581</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081334</v>
+        <v>302.2476419081342</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406677</v>
+        <v>95.88311714406603</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081334</v>
+        <v>302.2476419081341</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27379,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>161.0758693479386</v>
       </c>
       <c r="D2" t="n">
-        <v>78.52652791832753</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>130.719532039356</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>171.9232912582848</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>61.87643319194542</v>
+        <v>61.87643319194537</v>
       </c>
       <c r="I2" t="n">
         <v>205.0481221176458</v>
@@ -27424,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8118405263978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3343897888113</v>
@@ -27473,10 +27475,10 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>100.2133578346707</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,10 +27514,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>68.64434704668244</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.70078623405945</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27561,7 +27563,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K4" t="n">
-        <v>14.93225064571201</v>
+        <v>14.2548553616135</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R4" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>222.9160118599466</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.69421081705838</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>9.890739225840264</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>34.83641489528992</v>
       </c>
       <c r="G5" t="n">
-        <v>141.2516776302062</v>
+        <v>42.79050283128885</v>
       </c>
       <c r="H5" t="n">
-        <v>334.6347480657416</v>
+        <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280909</v>
+        <v>192.255830128091</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385216</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>198.2506096409305</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.0270262658048</v>
       </c>
       <c r="U5" t="n">
         <v>251.3078446008425</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>141.730379006407</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.19830780963139</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27701,16 +27703,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.45800155129686</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
-        <v>86.20418276442592</v>
+        <v>142.1949104194231</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27795,7 +27797,7 @@
         <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358476</v>
+        <v>78.37121764358483</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27818,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322663</v>
+        <v>68.41045236322671</v>
       </c>
       <c r="R7" t="n">
-        <v>167.761378725518</v>
+        <v>167.7613787255181</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674583</v>
+        <v>220.3221240674584</v>
       </c>
       <c r="T7" t="n">
         <v>227.0397976882337</v>
       </c>
       <c r="U7" t="n">
-        <v>3.721434690769513</v>
+        <v>286.3074660576818</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>256.0746102935076</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,13 +27855,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>5.078602610311464</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>189.1014347877643</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>141.9757853575694</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>234.8615629785923</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.140788987815579</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H2" t="n">
-        <v>1.441855221466299</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760113</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
-        <v>17.90888720884597</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L2" t="n">
-        <v>22.217558194707</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.7213143567723</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N2" t="n">
-        <v>25.12133106840331</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081215</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411504</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.20362680796961</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.84383625587037</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847509</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626972</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01126311902524632</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0753287494713261</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H3" t="n">
-        <v>0.727517133052018</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727676</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J3" t="n">
-        <v>7.116914878779982</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335883</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L3" t="n">
-        <v>16.35591992358772</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.08658709192328</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N3" t="n">
-        <v>19.59175225833406</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O3" t="n">
-        <v>17.92262575689047</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P3" t="n">
-        <v>14.38448725650261</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164365</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263565</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S3" t="n">
-        <v>1.399198482504675</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3036277226497748</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008299</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006199</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623698</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I4" t="n">
-        <v>1.89918574522732</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174383</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170838</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894673</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948808</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N4" t="n">
-        <v>9.66414560139404</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179675</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938405</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.28821036858792</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R4" t="n">
-        <v>2.83959271339006</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S4" t="n">
-        <v>1.100586177025626</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457194</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094295</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246795</v>
+        <v>0.4726038374246771</v>
       </c>
       <c r="H5" t="n">
-        <v>4.8400540500255</v>
+        <v>4.840054050025476</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231498</v>
+        <v>18.22005944231488</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662293</v>
+        <v>40.11165994662273</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480963</v>
+        <v>60.11698038480932</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439518</v>
+        <v>74.5804300743948</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819632</v>
+        <v>82.98509856819589</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127919</v>
+        <v>84.32788422127877</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288753</v>
+        <v>79.62842981288713</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646575</v>
+        <v>67.9610225764654</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869439</v>
+        <v>51.03589764869414</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262805</v>
+        <v>29.6872008026279</v>
       </c>
       <c r="S5" t="n">
-        <v>10.7694599453149</v>
+        <v>10.76945994531484</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326536</v>
+        <v>2.068823298326525</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397435</v>
+        <v>0.03780830699397416</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560445</v>
+        <v>0.2528653456560432</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941272</v>
+        <v>2.44214689094126</v>
       </c>
       <c r="I6" t="n">
-        <v>8.706109488596271</v>
+        <v>8.706109488596226</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182832</v>
+        <v>23.89022987182819</v>
       </c>
       <c r="K6" t="n">
-        <v>40.8322080307833</v>
+        <v>40.83220803078309</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483547</v>
+        <v>54.90394270483518</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486706</v>
+        <v>64.07031148486674</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270959</v>
+        <v>65.76606198270925</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106775</v>
+        <v>60.16309827106745</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496872</v>
+        <v>48.28619043496847</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128737</v>
+        <v>32.27803956128721</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134635</v>
+        <v>15.69983260134627</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707666</v>
+        <v>4.696862889707642</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359232</v>
+        <v>1.019224792359227</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368715</v>
+        <v>0.01663587800368706</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005377</v>
+        <v>0.2119938115005366</v>
       </c>
       <c r="H7" t="n">
-        <v>1.8848177058866</v>
+        <v>1.884817705886591</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761628</v>
+        <v>6.375232076761596</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308802</v>
+        <v>14.98796247308794</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342611</v>
+        <v>24.62982646342598</v>
       </c>
       <c r="L7" t="n">
-        <v>31.51769812072541</v>
+        <v>31.51769812072525</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094338</v>
+        <v>33.23099356094321</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898686</v>
+        <v>32.44083480898669</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736693</v>
+        <v>29.96436164736678</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275594</v>
+        <v>25.63968789275581</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846776</v>
+        <v>17.75159088846767</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651449</v>
+        <v>9.532012651651401</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513915</v>
+        <v>3.694473969513897</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477519</v>
+        <v>0.9057917400477473</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912025</v>
+        <v>0.01156329880912019</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34714,10 +34716,10 @@
         <v>174.4233304118708</v>
       </c>
       <c r="P2" t="n">
-        <v>110.8113448503281</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424808</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315784</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>130.751251524742</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O3" t="n">
-        <v>269.1887005891755</v>
+        <v>87.27013098543772</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821095</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q3" t="n">
-        <v>79.71116244199195</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>36.97916784721081</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M4" t="n">
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062263</v>
+        <v>53.79631798062264</v>
       </c>
       <c r="O4" t="n">
-        <v>33.51153056421935</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831893</v>
+        <v>4.916638815831901</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201041</v>
+        <v>28.16237059201021</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109938</v>
+        <v>164.1725419109935</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548584</v>
+        <v>256.475229654858</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337561</v>
+        <v>302.1523988337557</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366724</v>
+        <v>292.261745036672</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539462</v>
+        <v>230.3303996539458</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926789</v>
+        <v>158.5267349926785</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414959</v>
+        <v>41.04519843414933</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557046</v>
+        <v>23.14363854557034</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>167.4560060690027</v>
       </c>
       <c r="L6" t="n">
-        <v>161.6999941067222</v>
+        <v>287.1899082284202</v>
       </c>
       <c r="M6" t="n">
-        <v>372.0396308464222</v>
+        <v>348.7597882910269</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464222</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033528</v>
+        <v>311.4291731033525</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605756</v>
+        <v>232.7745516605754</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>102.3735532111148</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543254</v>
+        <v>2.360334637543129</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104154</v>
+        <v>59.10772338104138</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278396</v>
+        <v>72.81487052278379</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821546</v>
+        <v>76.57300718821529</v>
       </c>
       <c r="O7" t="n">
-        <v>54.5494895614066</v>
+        <v>54.54948956140645</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764943</v>
+        <v>22.91824715764929</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770683</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355135</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
@@ -35419,7 +35421,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
         <v>713.1546070951472</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35890,7 +35892,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,19 +35971,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>138.6396521945101</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>287.7526615081892</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
@@ -36443,19 +36445,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>138.6396521945101</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>107.1571287550438</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36923,13 +36925,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>161.6616261677805</v>
+        <v>138.6396521945097</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>693.6972596887384</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37315,7 +37317,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37391,10 +37393,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
@@ -37628,19 +37630,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>138.6396521945101</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>725.3059354206563</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
